--- a/output/experiments/simple_debug/One_step_optimal.xlsx
+++ b/output/experiments/simple_debug/One_step_optimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Coding_project\Energy_grid_new\output\experiments\simple_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CF64AF-2F08-4070-8722-E2888B9EF83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE84CE-8288-46E9-A458-D6A59B49CFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>simple_bld</t>
-  </si>
-  <si>
-    <t>simple_pv</t>
-  </si>
-  <si>
-    <t>simple_ev</t>
-  </si>
-  <si>
     <t>bld</t>
   </si>
   <si>
@@ -196,6 +187,18 @@
     <t>load_pv_error_max_pos</t>
   </si>
   <si>
+    <t>load_ev_error_max_neg</t>
+  </si>
+  <si>
+    <t>load_ev_error_max_pos</t>
+  </si>
+  <si>
+    <t>load_net_error_max_neg</t>
+  </si>
+  <si>
+    <t>load_net_error_max_pos</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -260,42 +263,6 @@
   </si>
   <si>
     <t>by_execution</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-1-by_execution-2023-09-28_002.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-2-by_execution-2023-09-28_002.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-3-by_execution-2023-09-28_002.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-4-by_execution-2023-09-28_003.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-5-by_execution-2023-09-28_002.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-6-by_execution-2023-09-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-7-by_execution-2023-09-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-8-by_execution-2023-09-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-9-by_execution-2023-09-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-10-by_execution-2023-09-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-11-by_execution-2023-09-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-2.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-12-by_execution-2023-09-28_001.xlsx</t>
   </si>
 </sst>
 </file>
@@ -697,17 +664,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG13"/>
+  <dimension ref="A1:BH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:BJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -883,1241 +850,716 @@
       <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="b">
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2">
+        <v>438</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2">
-        <v>438</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" t="s">
-        <v>66</v>
+      <c r="O2">
+        <v>2.5</v>
+      </c>
+      <c r="P2">
+        <v>0.6</v>
       </c>
       <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>2.5</v>
-      </c>
-      <c r="S2">
-        <v>0.6</v>
-      </c>
-      <c r="T2">
-        <v>0.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>79</v>
       </c>
       <c r="U2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2">
-        <v>271.62597495561857</v>
-      </c>
-      <c r="Z2">
-        <v>7.2916666666666671E-2</v>
-      </c>
-      <c r="AA2">
-        <v>8004.9015251999999</v>
-      </c>
-      <c r="AB2" t="s">
         <v>80</v>
       </c>
-      <c r="AC2">
-        <v>271.62597495561857</v>
-      </c>
-      <c r="AD2">
-        <v>253.6259749556186</v>
-      </c>
-      <c r="AE2">
-        <v>18</v>
-      </c>
-      <c r="AF2">
-        <v>18</v>
-      </c>
-      <c r="AG2">
-        <v>438</v>
-      </c>
-      <c r="AH2">
-        <v>8.4601761902055124</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0.21860764896888149</v>
-      </c>
-      <c r="AL2">
-        <v>0.21860764896888149</v>
-      </c>
-      <c r="AM2">
-        <v>0.20412104590346111</v>
-      </c>
-      <c r="AO2">
-        <v>71.448023271246541</v>
-      </c>
-      <c r="AP2">
-        <v>220.31377963346321</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>1242.5273142857141</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>1242.5273142857141</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>1507.5066635706719</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>220.31377963346321</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>119.08003878541091</v>
-      </c>
-      <c r="BB2">
-        <v>18.934982667654289</v>
-      </c>
-      <c r="BC2">
-        <v>38.135827949091137</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="H3">
+        <v>438</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3">
-        <v>438</v>
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2.5</v>
+      </c>
+      <c r="P3">
+        <v>0.6</v>
       </c>
       <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>2.5</v>
-      </c>
-      <c r="S3">
-        <v>0.6</v>
-      </c>
-      <c r="T3">
-        <v>0.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>79</v>
       </c>
       <c r="U3" t="s">
-        <v>78</v>
-      </c>
-      <c r="X3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y3">
-        <v>299.37690995394388</v>
-      </c>
-      <c r="Z3">
-        <v>7.2916666666666671E-2</v>
-      </c>
-      <c r="AA3">
-        <v>7273.4883911999996</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC3">
-        <v>299.37690995394388</v>
-      </c>
-      <c r="AD3">
-        <v>281.37690995394388</v>
-      </c>
-      <c r="AE3">
-        <v>18</v>
-      </c>
-      <c r="AF3">
-        <v>18</v>
-      </c>
-      <c r="AG3">
-        <v>438</v>
-      </c>
-      <c r="AH3">
-        <v>6.6782545055347189</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0.1901936070921792</v>
-      </c>
-      <c r="AL3">
-        <v>0.1901936070921792</v>
-      </c>
-      <c r="AM3">
-        <v>0.17875823978818139</v>
-      </c>
-      <c r="AO3">
-        <v>71.505956040669616</v>
-      </c>
-      <c r="AP3">
-        <v>420.04641605604792</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>1574.0640000000001</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>1574.0640000000001</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>2860.2382416267851</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>420.04641605604792</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>119.17659340111609</v>
-      </c>
-      <c r="BB3">
-        <v>104.35511556618749</v>
-      </c>
-      <c r="BC3">
-        <v>210.1754621427736</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="H4">
+        <v>438</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4">
-        <v>438</v>
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>2.5</v>
+      </c>
+      <c r="P4">
+        <v>0.6</v>
       </c>
       <c r="Q4">
-        <v>3</v>
-      </c>
-      <c r="R4">
-        <v>2.5</v>
-      </c>
-      <c r="S4">
-        <v>0.6</v>
-      </c>
-      <c r="T4">
-        <v>0.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="R4" t="s">
+        <v>79</v>
       </c>
       <c r="U4" t="s">
-        <v>78</v>
-      </c>
-      <c r="X4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y4">
-        <v>297.61085477005469</v>
-      </c>
-      <c r="Z4">
-        <v>7.2916666666666671E-2</v>
-      </c>
-      <c r="AA4">
-        <v>7831.1574346999987</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC4">
-        <v>297.61085477005469</v>
-      </c>
-      <c r="AD4">
-        <v>279.61085477005469</v>
-      </c>
-      <c r="AE4">
-        <v>18</v>
-      </c>
-      <c r="AF4">
-        <v>18</v>
-      </c>
-      <c r="AG4">
-        <v>438</v>
-      </c>
-      <c r="AH4">
-        <v>6.6397064842602571</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0.18798028179251999</v>
-      </c>
-      <c r="AL4">
-        <v>0.18798028179251999</v>
-      </c>
-      <c r="AM4">
-        <v>0.17661092137426609</v>
-      </c>
-      <c r="AO4">
-        <v>62.73569686986054</v>
-      </c>
-      <c r="AP4">
-        <v>368.52740789838072</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>1583.202514285714</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>1583.202514285714</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>2509.4278747944222</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>368.52740789838072</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>104.5594947831009</v>
-      </c>
-      <c r="BB4">
-        <v>75.297505774877777</v>
-      </c>
-      <c r="BC4">
-        <v>151.65224999818651</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="H5">
+        <v>438</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5">
-        <v>438</v>
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>2.5</v>
+      </c>
+      <c r="P5">
+        <v>0.6</v>
       </c>
       <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>2.5</v>
-      </c>
-      <c r="S5">
-        <v>0.6</v>
-      </c>
-      <c r="T5">
-        <v>0.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="R5" t="s">
+        <v>79</v>
       </c>
       <c r="U5" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5">
-        <v>171.8179842560597</v>
-      </c>
-      <c r="Z5">
-        <v>1.041666666666667E-2</v>
-      </c>
-      <c r="AA5">
-        <v>3254.9449417000001</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC5">
-        <v>171.8179842560597</v>
-      </c>
-      <c r="AD5">
-        <v>153.8179842560597</v>
-      </c>
-      <c r="AE5">
-        <v>18</v>
-      </c>
-      <c r="AF5">
-        <v>18</v>
-      </c>
-      <c r="AG5">
-        <v>438</v>
-      </c>
-      <c r="AH5">
-        <v>7.0153520889892613</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0.11466549227327549</v>
-      </c>
-      <c r="AL5">
-        <v>0.11466549227327549</v>
-      </c>
-      <c r="AM5">
-        <v>0.10265290307980079</v>
-      </c>
-      <c r="AO5">
-        <v>61.761071703593323</v>
-      </c>
-      <c r="AP5">
-        <v>375.50731595784742</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>1498.4280000000001</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>1498.4280000000001</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>2470.442868143733</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>375.50731595784742</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>102.93511950598889</v>
-      </c>
-      <c r="BB5">
-        <v>19.42505505793455</v>
-      </c>
-      <c r="BC5">
-        <v>283.450403405381</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="H6">
+        <v>438</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6">
-        <v>438</v>
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>2.5</v>
+      </c>
+      <c r="P6">
+        <v>0.6</v>
       </c>
       <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6">
-        <v>2.5</v>
-      </c>
-      <c r="S6">
-        <v>0.6</v>
-      </c>
-      <c r="T6">
-        <v>0.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="R6" t="s">
+        <v>79</v>
       </c>
       <c r="U6" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="H7">
+        <v>438</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7">
-        <v>438</v>
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>2.5</v>
+      </c>
+      <c r="P7">
+        <v>0.6</v>
       </c>
       <c r="Q7">
-        <v>6</v>
-      </c>
-      <c r="R7">
-        <v>2.5</v>
-      </c>
-      <c r="S7">
-        <v>0.6</v>
-      </c>
-      <c r="T7">
-        <v>0.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="R7" t="s">
+        <v>79</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
-      </c>
-      <c r="X7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="H8">
+        <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8">
-        <v>438</v>
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>2.5</v>
+      </c>
+      <c r="P8">
+        <v>0.6</v>
       </c>
       <c r="Q8">
-        <v>7</v>
-      </c>
-      <c r="R8">
-        <v>2.5</v>
-      </c>
-      <c r="S8">
-        <v>0.6</v>
-      </c>
-      <c r="T8">
-        <v>0.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="R8" t="s">
+        <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>78</v>
-      </c>
-      <c r="X8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="H9">
+        <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9">
-        <v>438</v>
+        <v>65</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>2.5</v>
+      </c>
+      <c r="P9">
+        <v>0.6</v>
       </c>
       <c r="Q9">
-        <v>8</v>
-      </c>
-      <c r="R9">
-        <v>2.5</v>
-      </c>
-      <c r="S9">
-        <v>0.6</v>
-      </c>
-      <c r="T9">
-        <v>0.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>78</v>
-      </c>
-      <c r="X9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="H10">
+        <v>438</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10">
-        <v>438</v>
+        <v>65</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>2.5</v>
+      </c>
+      <c r="P10">
+        <v>0.6</v>
       </c>
       <c r="Q10">
-        <v>9</v>
-      </c>
-      <c r="R10">
-        <v>2.5</v>
-      </c>
-      <c r="S10">
-        <v>0.6</v>
-      </c>
-      <c r="T10">
-        <v>0.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
-      </c>
-      <c r="X10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="H11">
+        <v>438</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11">
-        <v>438</v>
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>2.5</v>
+      </c>
+      <c r="P11">
+        <v>0.6</v>
       </c>
       <c r="Q11">
-        <v>10</v>
-      </c>
-      <c r="R11">
-        <v>2.5</v>
-      </c>
-      <c r="S11">
-        <v>0.6</v>
-      </c>
-      <c r="T11">
-        <v>0.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="R11" t="s">
+        <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>78</v>
-      </c>
-      <c r="X11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="H12">
+        <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12">
-        <v>438</v>
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <v>2.5</v>
+      </c>
+      <c r="P12">
+        <v>0.6</v>
       </c>
       <c r="Q12">
-        <v>11</v>
-      </c>
-      <c r="R12">
-        <v>2.5</v>
-      </c>
-      <c r="S12">
-        <v>0.6</v>
-      </c>
-      <c r="T12">
-        <v>0.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>78</v>
-      </c>
-      <c r="X12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="H13">
+        <v>438</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13">
-        <v>438</v>
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>65</v>
       </c>
       <c r="L13" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="M13" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>2.5</v>
+      </c>
+      <c r="P13">
+        <v>0.6</v>
       </c>
       <c r="Q13">
-        <v>12</v>
-      </c>
-      <c r="R13">
-        <v>2.5</v>
-      </c>
-      <c r="S13">
-        <v>0.6</v>
-      </c>
-      <c r="T13">
-        <v>0.6</v>
+        <v>0.6</v>
+      </c>
+      <c r="R13" t="s">
+        <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>78</v>
-      </c>
-      <c r="X13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
